--- a/Employee Sample Data.xlsx
+++ b/Employee Sample Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47BDEA-6124-4879-84E3-CF88AC8AF1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE6473-42AE-4424-B83B-4DB887F08E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{65C14963-D7D9-489F-85DF-B390E3AF6B64}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9931" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9939" uniqueCount="1988">
   <si>
     <t>EEID</t>
   </si>
@@ -5991,6 +5991,15 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Marketing has the highest average salary</t>
   </si>
 </sst>
 </file>
@@ -6002,7 +6011,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;$&quot;0_)"/>
     <numFmt numFmtId="165" formatCode="#,##0%_);\(#,##0%\);0%_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6025,8 +6034,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6048,6 +6065,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6105,7 +6128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6126,16 +6149,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0%_);\(#,##0%\);0%_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;$&quot;0_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
@@ -6145,6 +6212,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6153,6 +6223,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6161,24 +6234,9 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0%_);\(#,##0%\);0%_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;$&quot;0_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
@@ -6188,6 +6246,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6196,6 +6257,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6204,6 +6268,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6212,6 +6279,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6220,6 +6290,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6228,6 +6301,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6236,6 +6312,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6244,6 +6323,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6312,29 +6394,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7CA8898-8363-4905-AB67-C7A42F7FDBFA}" name="TBL_Employees" displayName="TBL_Employees" ref="A1:O1008" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7CA8898-8363-4905-AB67-C7A42F7FDBFA}" name="TBL_Employees" displayName="TBL_Employees" ref="A1:O1008" totalsRowCount="1" headerRowDxfId="20" totalsRowDxfId="2">
   <autoFilter ref="A1:O1007" xr:uid="{D7CA8898-8363-4905-AB67-C7A42F7FDBFA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N1007">
     <sortCondition ref="D1:D1007"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C53A9B11-526E-4544-9240-8F1BF85C6750}" name="EEID" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{D9E04A7B-3C65-4F91-BF60-EAFF40E6085B}" name="Full Name" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3249248C-14E8-4285-95BD-E69D813A3385}" name="Job Title" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E33EB952-346C-41A1-B164-C8F3F5985E7C}" name="Department" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{CEA661FD-99FA-487A-A15C-1D7E22600BE1}" name="Business Unit" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8EF3B415-18BF-405F-975C-1743BB4C3757}" name="Gender" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{6A0E630E-DF29-47EA-84F9-2F0B09D21C30}" name="Ethnicity" totalsRowDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E15FD44F-389F-4F09-9585-BC74F2C33EC0}" name="Age" totalsRowDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{94A02DFC-97C6-4041-9BB7-B996CFD8DC0F}" name="Hire Date" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{CA3B0D4F-FCC2-4967-BC8E-979F23AA32F2}" name="Annual Salary" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{C53A9B11-526E-4544-9240-8F1BF85C6750}" name="EEID" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{D9E04A7B-3C65-4F91-BF60-EAFF40E6085B}" name="Full Name" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{3249248C-14E8-4285-95BD-E69D813A3385}" name="Job Title" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{E33EB952-346C-41A1-B164-C8F3F5985E7C}" name="Department" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{CEA661FD-99FA-487A-A15C-1D7E22600BE1}" name="Business Unit" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8EF3B415-18BF-405F-975C-1743BB4C3757}" name="Gender" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6A0E630E-DF29-47EA-84F9-2F0B09D21C30}" name="Ethnicity" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E15FD44F-389F-4F09-9585-BC74F2C33EC0}" name="Age" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{94A02DFC-97C6-4041-9BB7-B996CFD8DC0F}" name="Hire Date" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{CA3B0D4F-FCC2-4967-BC8E-979F23AA32F2}" name="Annual Salary" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="1">
       <totalsRowFormula>SUM(J868:J1007)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{84DC6F9B-C840-4378-9E1C-BEB4EB18E284}" name="Bonus %" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{CE1EEE5A-39A1-487E-BBC4-1A7B33DC7D56}" name="Country" totalsRowDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7A08E8D1-8DAD-46E1-B6BA-B9ED0ABD69C7}" name="City" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{C7E08E0D-5677-461D-982F-21737E3F492B}" name="Exit Date" dataDxfId="14" totalsRowDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{05BAEFDE-6E44-4179-B6BB-D8FAF52A693D}" name="Column1"/>
+    <tableColumn id="11" xr3:uid="{84DC6F9B-C840-4378-9E1C-BEB4EB18E284}" name="Bonus %" totalsRowLabel="COUNT" dataDxfId="17" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{CE1EEE5A-39A1-487E-BBC4-1A7B33DC7D56}" name="Country" totalsRowFunction="custom" totalsRowDxfId="6">
+      <totalsRowFormula>COUNT(J868:J1007)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{7A08E8D1-8DAD-46E1-B6BA-B9ED0ABD69C7}" name="City" totalsRowFunction="custom" totalsRowDxfId="5" totalsRowCellStyle="Currency">
+      <totalsRowFormula>QUOTIENT(TBL_Employees[[#Totals],[Annual Salary]],TBL_Employees[[#Totals],[Country]])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{C7E08E0D-5677-461D-982F-21737E3F492B}" name="Exit Date" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{05BAEFDE-6E44-4179-B6BB-D8FAF52A693D}" name="Column1" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6640,7 +6726,7 @@
   <dimension ref="A1:P1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6737,7 +6823,7 @@
       <c r="I2" s="1">
         <v>44181</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="2">
         <v>45049</v>
       </c>
       <c r="K2" s="3">
@@ -6784,7 +6870,7 @@
       <c r="I3" s="1">
         <v>43843</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="2">
         <v>45049</v>
       </c>
       <c r="K3" s="3">
@@ -6799,7 +6885,7 @@
       <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>23576499</v>
       </c>
     </row>
@@ -6831,7 +6917,7 @@
       <c r="I4" s="1">
         <v>41362</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="2">
         <v>45049</v>
       </c>
       <c r="K4" s="3">
@@ -6875,7 +6961,7 @@
       <c r="I5" s="1">
         <v>41130</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="2">
         <v>45049</v>
       </c>
       <c r="K5" s="3">
@@ -6889,6 +6975,9 @@
       </c>
       <c r="N5" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -6919,7 +7008,7 @@
       <c r="I6" s="1">
         <v>44556</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="2">
         <v>45049</v>
       </c>
       <c r="K6" s="3">
@@ -6933,6 +7022,9 @@
       </c>
       <c r="N6" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="P6" s="14">
+        <v>129663</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -6963,7 +7055,7 @@
       <c r="I7" s="1">
         <v>41503</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="2">
         <v>45049</v>
       </c>
       <c r="K7" s="3">
@@ -7007,7 +7099,7 @@
       <c r="I8" s="1">
         <v>39197</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="2">
         <v>45049</v>
       </c>
       <c r="K8" s="3">
@@ -7051,7 +7143,7 @@
       <c r="I9" s="1">
         <v>44038</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="2">
         <v>45049</v>
       </c>
       <c r="K9" s="3">
@@ -7095,7 +7187,7 @@
       <c r="I10" s="1">
         <v>44235</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="2">
         <v>45049</v>
       </c>
       <c r="K10" s="3">
@@ -7139,7 +7231,7 @@
       <c r="I11" s="1">
         <v>42914</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="2">
         <v>45049</v>
       </c>
       <c r="K11" s="3">
@@ -7183,7 +7275,7 @@
       <c r="I12" s="1">
         <v>39147</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="2">
         <v>45049</v>
       </c>
       <c r="K12" s="3">
@@ -7227,7 +7319,7 @@
       <c r="I13" s="1">
         <v>40681</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="2">
         <v>45049</v>
       </c>
       <c r="K13" s="3">
@@ -7271,7 +7363,7 @@
       <c r="I14" s="1">
         <v>41256</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="2">
         <v>45049</v>
       </c>
       <c r="K14" s="3">
@@ -7315,7 +7407,7 @@
       <c r="I15" s="1">
         <v>41714</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="2">
         <v>45049</v>
       </c>
       <c r="K15" s="3">
@@ -7359,7 +7451,7 @@
       <c r="I16" s="1">
         <v>40468</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="2">
         <v>45049</v>
       </c>
       <c r="K16" s="3">
@@ -7403,7 +7495,7 @@
       <c r="I17" s="1">
         <v>40340</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="2">
         <v>45049</v>
       </c>
       <c r="K17" s="3">
@@ -7447,7 +7539,7 @@
       <c r="I18" s="1">
         <v>38121</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="2">
         <v>45049</v>
       </c>
       <c r="K18" s="3">
@@ -7491,7 +7583,7 @@
       <c r="I19" s="1">
         <v>42785</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="2">
         <v>45049</v>
       </c>
       <c r="K19" s="3">
@@ -7535,7 +7627,7 @@
       <c r="I20" s="1">
         <v>42963</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="2">
         <v>45049</v>
       </c>
       <c r="K20" s="3">
@@ -7579,7 +7671,7 @@
       <c r="I21" s="1">
         <v>44040</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="2">
         <v>45049</v>
       </c>
       <c r="K21" s="3">
@@ -7623,7 +7715,7 @@
       <c r="I22" s="1">
         <v>42276</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="2">
         <v>45049</v>
       </c>
       <c r="K22" s="3">
@@ -7667,7 +7759,7 @@
       <c r="I23" s="1">
         <v>39968</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="2">
         <v>45049</v>
       </c>
       <c r="K23" s="3">
@@ -7711,7 +7803,7 @@
       <c r="I24" s="1">
         <v>43276</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="2">
         <v>45049</v>
       </c>
       <c r="K24" s="3">
@@ -7755,7 +7847,7 @@
       <c r="I25" s="1">
         <v>37755</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="2">
         <v>45049</v>
       </c>
       <c r="K25" s="3">
@@ -7799,7 +7891,7 @@
       <c r="I26" s="1">
         <v>41429</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="2">
         <v>45049</v>
       </c>
       <c r="K26" s="3">
@@ -7843,7 +7935,7 @@
       <c r="I27" s="1">
         <v>44393</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="2">
         <v>45049</v>
       </c>
       <c r="K27" s="3">
@@ -7887,7 +7979,7 @@
       <c r="I28" s="1">
         <v>42912</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="2">
         <v>45049</v>
       </c>
       <c r="K28" s="3">
@@ -7931,7 +8023,7 @@
       <c r="I29" s="1">
         <v>38135</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="2">
         <v>45049</v>
       </c>
       <c r="K29" s="3">
@@ -7975,7 +8067,7 @@
       <c r="I30" s="1">
         <v>43488</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="2">
         <v>45049</v>
       </c>
       <c r="K30" s="3">
@@ -8019,7 +8111,7 @@
       <c r="I31" s="1">
         <v>43652</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="2">
         <v>45049</v>
       </c>
       <c r="K31" s="3">
@@ -8063,7 +8155,7 @@
       <c r="I32" s="1">
         <v>39843</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="2">
         <v>45049</v>
       </c>
       <c r="K32" s="3">
@@ -8107,7 +8199,7 @@
       <c r="I33" s="1">
         <v>42616</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="2">
         <v>45049</v>
       </c>
       <c r="K33" s="3">
@@ -8151,7 +8243,7 @@
       <c r="I34" s="1">
         <v>39063</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="2">
         <v>45049</v>
       </c>
       <c r="K34" s="3">
@@ -8195,7 +8287,7 @@
       <c r="I35" s="1">
         <v>41315</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="2">
         <v>45049</v>
       </c>
       <c r="K35" s="3">
@@ -8239,7 +8331,7 @@
       <c r="I36" s="1">
         <v>38888</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="2">
         <v>45049</v>
       </c>
       <c r="K36" s="3">
@@ -8283,7 +8375,7 @@
       <c r="I37" s="1">
         <v>40552</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="2">
         <v>45049</v>
       </c>
       <c r="K37" s="3">
@@ -8327,7 +8419,7 @@
       <c r="I38" s="1">
         <v>36983</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="2">
         <v>45049</v>
       </c>
       <c r="K38" s="3">
@@ -8371,7 +8463,7 @@
       <c r="I39" s="1">
         <v>43255</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="2">
         <v>45049</v>
       </c>
       <c r="K39" s="3">
@@ -8415,7 +8507,7 @@
       <c r="I40" s="1">
         <v>40389</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="2">
         <v>45049</v>
       </c>
       <c r="K40" s="3">
@@ -8459,7 +8551,7 @@
       <c r="I41" s="1">
         <v>42755</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="2">
         <v>45049</v>
       </c>
       <c r="K41" s="3">
@@ -8503,7 +8595,7 @@
       <c r="I42" s="1">
         <v>43147</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="2">
         <v>45049</v>
       </c>
       <c r="K42" s="3">
@@ -8547,7 +8639,7 @@
       <c r="I43" s="1">
         <v>40952</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="2">
         <v>45049</v>
       </c>
       <c r="K43" s="3">
@@ -8591,7 +8683,7 @@
       <c r="I44" s="1">
         <v>37296</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="2">
         <v>45049</v>
       </c>
       <c r="K44" s="3">
@@ -8635,7 +8727,7 @@
       <c r="I45" s="1">
         <v>36644</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="2">
         <v>45049</v>
       </c>
       <c r="K45" s="3">
@@ -8679,7 +8771,7 @@
       <c r="I46" s="1">
         <v>41919</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="2">
         <v>45049</v>
       </c>
       <c r="K46" s="3">
@@ -8723,7 +8815,7 @@
       <c r="I47" s="1">
         <v>44545</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="2">
         <v>45049</v>
       </c>
       <c r="K47" s="3">
@@ -8767,7 +8859,7 @@
       <c r="I48" s="1">
         <v>43490</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="2">
         <v>45049</v>
       </c>
       <c r="K48" s="3">
@@ -8811,7 +8903,7 @@
       <c r="I49" s="1">
         <v>44519</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="2">
         <v>45049</v>
       </c>
       <c r="K49" s="3">
@@ -8855,7 +8947,7 @@
       <c r="I50" s="1">
         <v>44516</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="2">
         <v>45049</v>
       </c>
       <c r="K50" s="3">
@@ -8899,7 +8991,7 @@
       <c r="I51" s="1">
         <v>42228</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="2">
         <v>45049</v>
       </c>
       <c r="K51" s="3">
@@ -8943,7 +9035,7 @@
       <c r="I52" s="1">
         <v>38642</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="2">
         <v>45049</v>
       </c>
       <c r="K52" s="3">
@@ -8987,7 +9079,7 @@
       <c r="I53" s="1">
         <v>42214</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="2">
         <v>45049</v>
       </c>
       <c r="K53" s="3">
@@ -9031,7 +9123,7 @@
       <c r="I54" s="1">
         <v>41915</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="2">
         <v>45049</v>
       </c>
       <c r="K54" s="3">
@@ -9075,7 +9167,7 @@
       <c r="I55" s="1">
         <v>40292</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="2">
         <v>45049</v>
       </c>
       <c r="K55" s="3">
@@ -9119,7 +9211,7 @@
       <c r="I56" s="1">
         <v>41155</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="2">
         <v>45049</v>
       </c>
       <c r="K56" s="3">
@@ -9163,7 +9255,7 @@
       <c r="I57" s="1">
         <v>43484</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="2">
         <v>45049</v>
       </c>
       <c r="K57" s="3">
@@ -9207,7 +9299,7 @@
       <c r="I58" s="1">
         <v>34592</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="2">
         <v>45049</v>
       </c>
       <c r="K58" s="3">
@@ -9251,7 +9343,7 @@
       <c r="I59" s="1">
         <v>44314</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="2">
         <v>45049</v>
       </c>
       <c r="K59" s="3">
@@ -9295,7 +9387,7 @@
       <c r="I60" s="1">
         <v>40750</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="2">
         <v>45049</v>
       </c>
       <c r="K60" s="3">
@@ -9339,7 +9431,7 @@
       <c r="I61" s="1">
         <v>43043</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="2">
         <v>45049</v>
       </c>
       <c r="K61" s="3">
@@ -9383,7 +9475,7 @@
       <c r="I62" s="1">
         <v>40591</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="2">
         <v>45049</v>
       </c>
       <c r="K62" s="3">
@@ -9427,7 +9519,7 @@
       <c r="I63" s="1">
         <v>42494</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="2">
         <v>45049</v>
       </c>
       <c r="K63" s="3">
@@ -9471,7 +9563,7 @@
       <c r="I64" s="1">
         <v>41662</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="2">
         <v>45049</v>
       </c>
       <c r="K64" s="3">
@@ -9515,7 +9607,7 @@
       <c r="I65" s="1">
         <v>44113</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="2">
         <v>45049</v>
       </c>
       <c r="K65" s="3">
@@ -9559,7 +9651,7 @@
       <c r="I66" s="1">
         <v>38344</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="2">
         <v>45049</v>
       </c>
       <c r="K66" s="3">
@@ -9603,7 +9695,7 @@
       <c r="I67" s="1">
         <v>43169</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="2">
         <v>45049</v>
       </c>
       <c r="K67" s="3">
@@ -9647,7 +9739,7 @@
       <c r="I68" s="1">
         <v>42384</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="2">
         <v>45049</v>
       </c>
       <c r="K68" s="3">
@@ -9691,7 +9783,7 @@
       <c r="I69" s="1">
         <v>43999</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="2">
         <v>45049</v>
       </c>
       <c r="K69" s="3">
@@ -9735,7 +9827,7 @@
       <c r="I70" s="1">
         <v>44036</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="2">
         <v>45049</v>
       </c>
       <c r="K70" s="3">
@@ -9779,7 +9871,7 @@
       <c r="I71" s="1">
         <v>40109</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="2">
         <v>45049</v>
       </c>
       <c r="K71" s="3">
@@ -9823,7 +9915,7 @@
       <c r="I72" s="1">
         <v>39634</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="2">
         <v>45049</v>
       </c>
       <c r="K72" s="3">
@@ -9867,7 +9959,7 @@
       <c r="I73" s="1">
         <v>37733</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="2">
         <v>45049</v>
       </c>
       <c r="K73" s="3">
@@ -9911,7 +10003,7 @@
       <c r="I74" s="1">
         <v>43467</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="2">
         <v>45049</v>
       </c>
       <c r="K74" s="3">
@@ -9955,7 +10047,7 @@
       <c r="I75" s="1">
         <v>44482</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="2">
         <v>45049</v>
       </c>
       <c r="K75" s="3">
@@ -9999,7 +10091,7 @@
       <c r="I76" s="1">
         <v>42533</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="2">
         <v>45049</v>
       </c>
       <c r="K76" s="3">
@@ -10043,7 +10135,7 @@
       <c r="I77" s="1">
         <v>44124</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="2">
         <v>45049</v>
       </c>
       <c r="K77" s="3">
@@ -10087,7 +10179,7 @@
       <c r="I78" s="1">
         <v>38819</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="2">
         <v>45049</v>
       </c>
       <c r="K78" s="3">
@@ -10131,7 +10223,7 @@
       <c r="I79" s="1">
         <v>43336</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="2">
         <v>45049</v>
       </c>
       <c r="K79" s="3">
@@ -10175,7 +10267,7 @@
       <c r="I80" s="1">
         <v>41680</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="2">
         <v>45049</v>
       </c>
       <c r="K80" s="3">
@@ -10219,7 +10311,7 @@
       <c r="I81" s="1">
         <v>42602</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J81" s="2">
         <v>45049</v>
       </c>
       <c r="K81" s="3">
@@ -10263,7 +10355,7 @@
       <c r="I82" s="1">
         <v>43440</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="2">
         <v>45049</v>
       </c>
       <c r="K82" s="3">
@@ -10307,7 +10399,7 @@
       <c r="I83" s="1">
         <v>40894</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="2">
         <v>45049</v>
       </c>
       <c r="K83" s="3">
@@ -10351,7 +10443,7 @@
       <c r="I84" s="1">
         <v>43028</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="2">
         <v>45049</v>
       </c>
       <c r="K84" s="3">
@@ -10395,7 +10487,7 @@
       <c r="I85" s="1">
         <v>40287</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="2">
         <v>45049</v>
       </c>
       <c r="K85" s="3">
@@ -10439,7 +10531,7 @@
       <c r="I86" s="1">
         <v>43489</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="2">
         <v>45049</v>
       </c>
       <c r="K86" s="3">
@@ -10483,7 +10575,7 @@
       <c r="I87" s="1">
         <v>39080</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="2">
         <v>45049</v>
       </c>
       <c r="K87" s="3">
@@ -10527,7 +10619,7 @@
       <c r="I88" s="1">
         <v>43824</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88" s="2">
         <v>45049</v>
       </c>
       <c r="K88" s="3">
@@ -10571,7 +10663,7 @@
       <c r="I89" s="1">
         <v>40899</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="2">
         <v>45049</v>
       </c>
       <c r="K89" s="3">
@@ -10615,7 +10707,7 @@
       <c r="I90" s="1">
         <v>39177</v>
       </c>
-      <c r="J90" s="12">
+      <c r="J90" s="2">
         <v>45049</v>
       </c>
       <c r="K90" s="3">
@@ -10659,7 +10751,7 @@
       <c r="I91" s="1">
         <v>42867</v>
       </c>
-      <c r="J91" s="12">
+      <c r="J91" s="2">
         <v>45049</v>
       </c>
       <c r="K91" s="3">
@@ -10703,7 +10795,7 @@
       <c r="I92" s="1">
         <v>43671</v>
       </c>
-      <c r="J92" s="12">
+      <c r="J92" s="2">
         <v>45049</v>
       </c>
       <c r="K92" s="3">
@@ -10747,7 +10839,7 @@
       <c r="I93" s="1">
         <v>34802</v>
       </c>
-      <c r="J93" s="12">
+      <c r="J93" s="2">
         <v>45049</v>
       </c>
       <c r="K93" s="3">
@@ -10791,7 +10883,7 @@
       <c r="I94" s="1">
         <v>43701</v>
       </c>
-      <c r="J94" s="12">
+      <c r="J94" s="2">
         <v>45049</v>
       </c>
       <c r="K94" s="3">
@@ -10835,7 +10927,7 @@
       <c r="I95" s="1">
         <v>35242</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J95" s="2">
         <v>45049</v>
       </c>
       <c r="K95" s="3">
@@ -10879,7 +10971,7 @@
       <c r="I96" s="1">
         <v>43610</v>
       </c>
-      <c r="J96" s="12">
+      <c r="J96" s="2">
         <v>45049</v>
       </c>
       <c r="K96" s="3">
@@ -10923,7 +11015,7 @@
       <c r="I97" s="1">
         <v>43247</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97" s="2">
         <v>45049</v>
       </c>
       <c r="K97" s="3">
@@ -10945,7 +11037,17 @@
         <f>SUM(J2:J97)</f>
         <v>4324704</v>
       </c>
-      <c r="K98" s="11"/>
+      <c r="K98" s="11" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L98" s="9">
+        <f>COUNT(J2:J97)</f>
+        <v>96</v>
+      </c>
+      <c r="M98" s="15">
+        <f>QUOTIENT(TBL_Employees[[#This Row],[Annual Salary]],TBL_Employees[[#This Row],[Country]])</f>
+        <v>45049</v>
+      </c>
       <c r="N98" s="10"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -10976,7 +11078,7 @@
       <c r="I99" s="1">
         <v>43165</v>
       </c>
-      <c r="J99" s="12">
+      <c r="J99" s="2">
         <v>255431</v>
       </c>
       <c r="K99" s="3">
@@ -11020,7 +11122,7 @@
       <c r="I100" s="1">
         <v>41428</v>
       </c>
-      <c r="J100" s="12">
+      <c r="J100" s="2">
         <v>254289</v>
       </c>
       <c r="K100" s="3">
@@ -11064,7 +11166,7 @@
       <c r="I101" s="1">
         <v>38145</v>
       </c>
-      <c r="J101" s="12">
+      <c r="J101" s="2">
         <v>246231</v>
       </c>
       <c r="K101" s="3">
@@ -11108,7 +11210,7 @@
       <c r="I102" s="1">
         <v>40826</v>
       </c>
-      <c r="J102" s="12">
+      <c r="J102" s="2">
         <v>245482</v>
       </c>
       <c r="K102" s="3">
@@ -11152,7 +11254,7 @@
       <c r="I103" s="1">
         <v>42922</v>
       </c>
-      <c r="J103" s="12">
+      <c r="J103" s="2">
         <v>240488</v>
       </c>
       <c r="K103" s="3">
@@ -11196,7 +11298,7 @@
       <c r="I104" s="1">
         <v>41071</v>
       </c>
-      <c r="J104" s="12">
+      <c r="J104" s="2">
         <v>222941</v>
       </c>
       <c r="K104" s="3">
@@ -11240,7 +11342,7 @@
       <c r="I105" s="1">
         <v>43345</v>
       </c>
-      <c r="J105" s="12">
+      <c r="J105" s="2">
         <v>221465</v>
       </c>
       <c r="K105" s="3">
@@ -11284,7 +11386,7 @@
       <c r="I106" s="1">
         <v>42173</v>
       </c>
-      <c r="J106" s="12">
+      <c r="J106" s="2">
         <v>205314</v>
       </c>
       <c r="K106" s="3">
@@ -11328,7 +11430,7 @@
       <c r="I107" s="1">
         <v>35230</v>
       </c>
-      <c r="J107" s="12">
+      <c r="J107" s="2">
         <v>200246</v>
       </c>
       <c r="K107" s="3">
@@ -11372,7 +11474,7 @@
       <c r="I108" s="1">
         <v>42512</v>
       </c>
-      <c r="J108" s="12">
+      <c r="J108" s="2">
         <v>189702</v>
       </c>
       <c r="K108" s="3">
@@ -11416,7 +11518,7 @@
       <c r="I109" s="1">
         <v>39185</v>
       </c>
-      <c r="J109" s="12">
+      <c r="J109" s="2">
         <v>189680</v>
       </c>
       <c r="K109" s="3">
@@ -11460,7 +11562,7 @@
       <c r="I110" s="1">
         <v>41941</v>
       </c>
-      <c r="J110" s="12">
+      <c r="J110" s="2">
         <v>189420</v>
       </c>
       <c r="K110" s="3">
@@ -11504,7 +11606,7 @@
       <c r="I111" s="1">
         <v>44069</v>
       </c>
-      <c r="J111" s="12">
+      <c r="J111" s="2">
         <v>189290</v>
       </c>
       <c r="K111" s="3">
@@ -11548,7 +11650,7 @@
       <c r="I112" s="1">
         <v>39018</v>
       </c>
-      <c r="J112" s="12">
+      <c r="J112" s="2">
         <v>187992</v>
       </c>
       <c r="K112" s="3">
@@ -11592,7 +11694,7 @@
       <c r="I113" s="1">
         <v>43212</v>
       </c>
-      <c r="J113" s="12">
+      <c r="J113" s="2">
         <v>187205</v>
       </c>
       <c r="K113" s="3">
@@ -11636,7 +11738,7 @@
       <c r="I114" s="1">
         <v>43868</v>
       </c>
-      <c r="J114" s="12">
+      <c r="J114" s="2">
         <v>187187</v>
       </c>
       <c r="K114" s="3">
@@ -11680,7 +11782,7 @@
       <c r="I115" s="1">
         <v>43240</v>
       </c>
-      <c r="J115" s="12">
+      <c r="J115" s="2">
         <v>184368</v>
       </c>
       <c r="K115" s="3">
@@ -11724,7 +11826,7 @@
       <c r="I116" s="1">
         <v>41879</v>
       </c>
-      <c r="J116" s="12">
+      <c r="J116" s="2">
         <v>183161</v>
       </c>
       <c r="K116" s="3">
@@ -11768,7 +11870,7 @@
       <c r="I117" s="1">
         <v>43809</v>
       </c>
-      <c r="J117" s="12">
+      <c r="J117" s="2">
         <v>183113</v>
       </c>
       <c r="K117" s="3">
@@ -11812,7 +11914,7 @@
       <c r="I118" s="1">
         <v>39734</v>
       </c>
-      <c r="J118" s="12">
+      <c r="J118" s="2">
         <v>181801</v>
       </c>
       <c r="K118" s="3">
@@ -11856,7 +11958,7 @@
       <c r="I119" s="1">
         <v>42387</v>
       </c>
-      <c r="J119" s="12">
+      <c r="J119" s="2">
         <v>180994</v>
       </c>
       <c r="K119" s="3">
@@ -11900,7 +12002,7 @@
       <c r="I120" s="1">
         <v>42739</v>
       </c>
-      <c r="J120" s="12">
+      <c r="J120" s="2">
         <v>178502</v>
       </c>
       <c r="K120" s="3">
@@ -11944,7 +12046,7 @@
       <c r="I121" s="1">
         <v>41839</v>
       </c>
-      <c r="J121" s="12">
+      <c r="J121" s="2">
         <v>173629</v>
       </c>
       <c r="K121" s="3">
@@ -11988,7 +12090,7 @@
       <c r="I122" s="1">
         <v>43441</v>
       </c>
-      <c r="J122" s="12">
+      <c r="J122" s="2">
         <v>170164</v>
       </c>
       <c r="K122" s="3">
@@ -12032,7 +12134,7 @@
       <c r="I123" s="1">
         <v>42972</v>
       </c>
-      <c r="J123" s="12">
+      <c r="J123" s="2">
         <v>169509</v>
       </c>
       <c r="K123" s="3">
@@ -12076,7 +12178,7 @@
       <c r="I124" s="1">
         <v>41204</v>
       </c>
-      <c r="J124" s="12">
+      <c r="J124" s="2">
         <v>168510</v>
       </c>
       <c r="K124" s="3">
@@ -12120,7 +12222,7 @@
       <c r="I125" s="1">
         <v>34940</v>
       </c>
-      <c r="J125" s="12">
+      <c r="J125" s="2">
         <v>158787</v>
       </c>
       <c r="K125" s="3">
@@ -12164,7 +12266,7 @@
       <c r="I126" s="1">
         <v>39528</v>
       </c>
-      <c r="J126" s="12">
+      <c r="J126" s="2">
         <v>156277</v>
       </c>
       <c r="K126" s="3">
@@ -12208,7 +12310,7 @@
       <c r="I127" s="1">
         <v>39156</v>
       </c>
-      <c r="J127" s="12">
+      <c r="J127" s="2">
         <v>155926</v>
       </c>
       <c r="K127" s="3">
@@ -12252,7 +12354,7 @@
       <c r="I128" s="1">
         <v>40511</v>
       </c>
-      <c r="J128" s="12">
+      <c r="J128" s="2">
         <v>153767</v>
       </c>
       <c r="K128" s="3">
@@ -12296,7 +12398,7 @@
       <c r="I129" s="1">
         <v>44125</v>
       </c>
-      <c r="J129" s="12">
+      <c r="J129" s="2">
         <v>151853</v>
       </c>
       <c r="K129" s="3">
@@ -12340,7 +12442,7 @@
       <c r="I130" s="1">
         <v>37726</v>
       </c>
-      <c r="J130" s="12">
+      <c r="J130" s="2">
         <v>150699</v>
       </c>
       <c r="K130" s="3">
@@ -12384,7 +12486,7 @@
       <c r="I131" s="1">
         <v>41318</v>
       </c>
-      <c r="J131" s="12">
+      <c r="J131" s="2">
         <v>124827</v>
       </c>
       <c r="K131" s="3">
@@ -12428,7 +12530,7 @@
       <c r="I132" s="1">
         <v>44099</v>
       </c>
-      <c r="J132" s="12">
+      <c r="J132" s="2">
         <v>123588</v>
       </c>
       <c r="K132" s="3">
@@ -12472,7 +12574,7 @@
       <c r="I133" s="1">
         <v>36893</v>
       </c>
-      <c r="J133" s="12">
+      <c r="J133" s="2">
         <v>120628</v>
       </c>
       <c r="K133" s="3">
@@ -12516,7 +12618,7 @@
       <c r="I134" s="1">
         <v>36990</v>
       </c>
-      <c r="J134" s="12">
+      <c r="J134" s="2">
         <v>119699</v>
       </c>
       <c r="K134" s="3">
@@ -12560,7 +12662,7 @@
       <c r="I135" s="1">
         <v>33702</v>
       </c>
-      <c r="J135" s="12">
+      <c r="J135" s="2">
         <v>116878</v>
       </c>
       <c r="K135" s="3">
@@ -12604,7 +12706,7 @@
       <c r="I136" s="1">
         <v>43418</v>
       </c>
-      <c r="J136" s="12">
+      <c r="J136" s="2">
         <v>115854</v>
       </c>
       <c r="K136" s="3">
@@ -12648,7 +12750,7 @@
       <c r="I137" s="1">
         <v>43990</v>
       </c>
-      <c r="J137" s="12">
+      <c r="J137" s="2">
         <v>115765</v>
       </c>
       <c r="K137" s="3">
@@ -12692,7 +12794,7 @@
       <c r="I138" s="1">
         <v>43217</v>
       </c>
-      <c r="J138" s="12">
+      <c r="J138" s="2">
         <v>115490</v>
       </c>
       <c r="K138" s="3">
@@ -12736,7 +12838,7 @@
       <c r="I139" s="1">
         <v>40836</v>
       </c>
-      <c r="J139" s="12">
+      <c r="J139" s="2">
         <v>114250</v>
       </c>
       <c r="K139" s="3">
@@ -12780,7 +12882,7 @@
       <c r="I140" s="1">
         <v>39506</v>
       </c>
-      <c r="J140" s="12">
+      <c r="J140" s="2">
         <v>113987</v>
       </c>
       <c r="K140" s="3">
@@ -12824,7 +12926,7 @@
       <c r="I141" s="1">
         <v>40517</v>
       </c>
-      <c r="J141" s="12">
+      <c r="J141" s="2">
         <v>113982</v>
       </c>
       <c r="K141" s="3">
@@ -12868,7 +12970,7 @@
       <c r="I142" s="1">
         <v>41712</v>
       </c>
-      <c r="J142" s="12">
+      <c r="J142" s="2">
         <v>113873</v>
       </c>
       <c r="K142" s="3">
@@ -12912,7 +13014,7 @@
       <c r="I143" s="1">
         <v>42706</v>
       </c>
-      <c r="J143" s="12">
+      <c r="J143" s="2">
         <v>113781</v>
       </c>
       <c r="K143" s="3">
@@ -12956,7 +13058,7 @@
       <c r="I144" s="1">
         <v>43375</v>
       </c>
-      <c r="J144" s="12">
+      <c r="J144" s="2">
         <v>111404</v>
       </c>
       <c r="K144" s="3">
@@ -13000,7 +13102,7 @@
       <c r="I145" s="1">
         <v>33612</v>
       </c>
-      <c r="J145" s="12">
+      <c r="J145" s="2">
         <v>111299</v>
       </c>
       <c r="K145" s="3">
@@ -13044,7 +13146,7 @@
       <c r="I146" s="1">
         <v>43055</v>
       </c>
-      <c r="J146" s="12">
+      <c r="J146" s="2">
         <v>110054</v>
       </c>
       <c r="K146" s="3">
@@ -13088,7 +13190,7 @@
       <c r="I147" s="1">
         <v>44490</v>
       </c>
-      <c r="J147" s="12">
+      <c r="J147" s="2">
         <v>109851</v>
       </c>
       <c r="K147" s="3">
@@ -13132,7 +13234,7 @@
       <c r="I148" s="1">
         <v>42622</v>
       </c>
-      <c r="J148" s="12">
+      <c r="J148" s="2">
         <v>109680</v>
       </c>
       <c r="K148" s="3">
@@ -13176,7 +13278,7 @@
       <c r="I149" s="1">
         <v>34505</v>
       </c>
-      <c r="J149" s="12">
+      <c r="J149" s="2">
         <v>109456</v>
       </c>
       <c r="K149" s="3">
@@ -13220,7 +13322,7 @@
       <c r="I150" s="1">
         <v>38057</v>
       </c>
-      <c r="J150" s="12">
+      <c r="J150" s="2">
         <v>109422</v>
       </c>
       <c r="K150" s="3">
@@ -13264,7 +13366,7 @@
       <c r="I151" s="1">
         <v>39382</v>
       </c>
-      <c r="J151" s="12">
+      <c r="J151" s="2">
         <v>106313</v>
       </c>
       <c r="K151" s="3">
@@ -13308,7 +13410,7 @@
       <c r="I152" s="1">
         <v>43146</v>
       </c>
-      <c r="J152" s="12">
+      <c r="J152" s="2">
         <v>106079</v>
       </c>
       <c r="K152" s="3">
@@ -13352,7 +13454,7 @@
       <c r="I153" s="1">
         <v>43157</v>
       </c>
-      <c r="J153" s="12">
+      <c r="J153" s="2">
         <v>103183</v>
       </c>
       <c r="K153" s="3">
@@ -13396,7 +13498,7 @@
       <c r="I154" s="1">
         <v>44478</v>
       </c>
-      <c r="J154" s="12">
+      <c r="J154" s="2">
         <v>102298</v>
       </c>
       <c r="K154" s="3">
@@ -13440,7 +13542,7 @@
       <c r="I155" s="1">
         <v>38696</v>
       </c>
-      <c r="J155" s="12">
+      <c r="J155" s="2">
         <v>102043</v>
       </c>
       <c r="K155" s="3">
@@ -13484,7 +13586,7 @@
       <c r="I156" s="1">
         <v>42441</v>
       </c>
-      <c r="J156" s="12">
+      <c r="J156" s="2">
         <v>100810</v>
       </c>
       <c r="K156" s="3">
@@ -13528,7 +13630,7 @@
       <c r="I157" s="1">
         <v>43815</v>
       </c>
-      <c r="J157" s="12">
+      <c r="J157" s="2">
         <v>99989</v>
       </c>
       <c r="K157" s="3">
@@ -13572,7 +13674,7 @@
       <c r="I158" s="1">
         <v>35403</v>
       </c>
-      <c r="J158" s="12">
+      <c r="J158" s="2">
         <v>99354</v>
       </c>
       <c r="K158" s="3">
@@ -13616,7 +13718,7 @@
       <c r="I159" s="1">
         <v>41977</v>
       </c>
-      <c r="J159" s="12">
+      <c r="J159" s="2">
         <v>99202</v>
       </c>
       <c r="K159" s="3">
@@ -13660,7 +13762,7 @@
       <c r="I160" s="1">
         <v>35990</v>
       </c>
-      <c r="J160" s="12">
+      <c r="J160" s="2">
         <v>99091</v>
       </c>
       <c r="K160" s="3">
@@ -13704,7 +13806,7 @@
       <c r="I161" s="1">
         <v>38388</v>
       </c>
-      <c r="J161" s="12">
+      <c r="J161" s="2">
         <v>98581</v>
       </c>
       <c r="K161" s="3">
@@ -13748,7 +13850,7 @@
       <c r="I162" s="1">
         <v>34616</v>
       </c>
-      <c r="J162" s="12">
+      <c r="J162" s="2">
         <v>98230</v>
       </c>
       <c r="K162" s="3">
@@ -13792,7 +13894,7 @@
       <c r="I163" s="1">
         <v>40193</v>
       </c>
-      <c r="J163" s="12">
+      <c r="J163" s="2">
         <v>98110</v>
       </c>
       <c r="K163" s="3">
@@ -13836,7 +13938,7 @@
       <c r="I164" s="1">
         <v>39532</v>
       </c>
-      <c r="J164" s="12">
+      <c r="J164" s="2">
         <v>97398</v>
       </c>
       <c r="K164" s="3">
@@ -13880,7 +13982,7 @@
       <c r="I165" s="1">
         <v>36331</v>
       </c>
-      <c r="J165" s="12">
+      <c r="J165" s="2">
         <v>96997</v>
       </c>
       <c r="K165" s="3">
@@ -13924,7 +14026,7 @@
       <c r="I166" s="1">
         <v>43448</v>
       </c>
-      <c r="J166" s="12">
+      <c r="J166" s="2">
         <v>96757</v>
       </c>
       <c r="K166" s="3">
@@ -13968,7 +14070,7 @@
       <c r="I167" s="1">
         <v>41907</v>
       </c>
-      <c r="J167" s="12">
+      <c r="J167" s="2">
         <v>96693</v>
       </c>
       <c r="K167" s="3">
@@ -14012,7 +14114,7 @@
       <c r="I168" s="1">
         <v>38464</v>
       </c>
-      <c r="J168" s="12">
+      <c r="J168" s="2">
         <v>96639</v>
       </c>
       <c r="K168" s="3">
@@ -14056,7 +14158,7 @@
       <c r="I169" s="1">
         <v>35055</v>
       </c>
-      <c r="J169" s="12">
+      <c r="J169" s="2">
         <v>96475</v>
       </c>
       <c r="K169" s="3">
@@ -14100,7 +14202,7 @@
       <c r="I170" s="1">
         <v>41028</v>
       </c>
-      <c r="J170" s="12">
+      <c r="J170" s="2">
         <v>96441</v>
       </c>
       <c r="K170" s="3">
@@ -14144,7 +14246,7 @@
       <c r="I171" s="1">
         <v>39701</v>
       </c>
-      <c r="J171" s="12">
+      <c r="J171" s="2">
         <v>96313</v>
       </c>
       <c r="K171" s="3">
@@ -14188,7 +14290,7 @@
       <c r="I172" s="1">
         <v>43062</v>
       </c>
-      <c r="J172" s="12">
+      <c r="J172" s="2">
         <v>96023</v>
       </c>
       <c r="K172" s="3">
@@ -14232,7 +14334,7 @@
       <c r="I173" s="1">
         <v>44224</v>
       </c>
-      <c r="J173" s="12">
+      <c r="J173" s="2">
         <v>95786</v>
       </c>
       <c r="K173" s="3">
@@ -14276,7 +14378,7 @@
       <c r="I174" s="1">
         <v>36993</v>
       </c>
-      <c r="J174" s="12">
+      <c r="J174" s="2">
         <v>95743</v>
       </c>
       <c r="K174" s="3">
@@ -14320,7 +14422,7 @@
       <c r="I175" s="1">
         <v>44548</v>
       </c>
-      <c r="J175" s="12">
+      <c r="J175" s="2">
         <v>95670</v>
       </c>
       <c r="K175" s="3">
@@ -14364,7 +14466,7 @@
       <c r="I176" s="1">
         <v>36442</v>
       </c>
-      <c r="J176" s="12">
+      <c r="J176" s="2">
         <v>95639</v>
       </c>
       <c r="K176" s="3">
@@ -14408,7 +14510,7 @@
       <c r="I177" s="1">
         <v>44276</v>
       </c>
-      <c r="J177" s="12">
+      <c r="J177" s="2">
         <v>95562</v>
       </c>
       <c r="K177" s="3">
@@ -14452,7 +14554,7 @@
       <c r="I178" s="1">
         <v>36275</v>
       </c>
-      <c r="J178" s="12">
+      <c r="J178" s="2">
         <v>95061</v>
       </c>
       <c r="K178" s="3">
@@ -14496,7 +14598,7 @@
       <c r="I179" s="1">
         <v>40929</v>
       </c>
-      <c r="J179" s="12">
+      <c r="J179" s="2">
         <v>94658</v>
       </c>
       <c r="K179" s="3">
@@ -14540,7 +14642,7 @@
       <c r="I180" s="1">
         <v>41237</v>
       </c>
-      <c r="J180" s="12">
+      <c r="J180" s="2">
         <v>94407</v>
       </c>
       <c r="K180" s="3">
@@ -14584,7 +14686,7 @@
       <c r="I181" s="1">
         <v>35992</v>
       </c>
-      <c r="J181" s="12">
+      <c r="J181" s="2">
         <v>92932</v>
       </c>
       <c r="K181" s="3">
@@ -14628,7 +14730,7 @@
       <c r="I182" s="1">
         <v>39800</v>
       </c>
-      <c r="J182" s="12">
+      <c r="J182" s="2">
         <v>92753</v>
       </c>
       <c r="K182" s="3">
@@ -14672,7 +14774,7 @@
       <c r="I183" s="1">
         <v>37446</v>
       </c>
-      <c r="J183" s="12">
+      <c r="J183" s="2">
         <v>92209</v>
       </c>
       <c r="K183" s="3">
@@ -14716,7 +14818,7 @@
       <c r="I184" s="1">
         <v>44515</v>
       </c>
-      <c r="J184" s="12">
+      <c r="J184" s="2">
         <v>91782</v>
       </c>
       <c r="K184" s="3">
@@ -14760,7 +14862,7 @@
       <c r="I185" s="1">
         <v>35726</v>
       </c>
-      <c r="J185" s="12">
+      <c r="J185" s="2">
         <v>91763</v>
       </c>
       <c r="K185" s="3">
@@ -14804,7 +14906,7 @@
       <c r="I186" s="1">
         <v>39471</v>
       </c>
-      <c r="J186" s="12">
+      <c r="J186" s="2">
         <v>91621</v>
       </c>
       <c r="K186" s="3">
@@ -14848,7 +14950,7 @@
       <c r="I187" s="1">
         <v>42516</v>
       </c>
-      <c r="J187" s="12">
+      <c r="J187" s="2">
         <v>91134</v>
       </c>
       <c r="K187" s="3">
@@ -14892,7 +14994,7 @@
       <c r="I188" s="1">
         <v>37041</v>
       </c>
-      <c r="J188" s="12">
+      <c r="J188" s="2">
         <v>90678</v>
       </c>
       <c r="K188" s="3">
@@ -14936,7 +15038,7 @@
       <c r="I189" s="1">
         <v>40060</v>
       </c>
-      <c r="J189" s="12">
+      <c r="J189" s="2">
         <v>89695</v>
       </c>
       <c r="K189" s="3">
@@ -14980,7 +15082,7 @@
       <c r="I190" s="1">
         <v>40967</v>
       </c>
-      <c r="J190" s="12">
+      <c r="J190" s="2">
         <v>89659</v>
       </c>
       <c r="K190" s="3">
@@ -15024,7 +15126,7 @@
       <c r="I191" s="1">
         <v>40663</v>
       </c>
-      <c r="J191" s="12">
+      <c r="J191" s="2">
         <v>89419</v>
       </c>
       <c r="K191" s="3">
@@ -15068,7 +15170,7 @@
       <c r="I192" s="1">
         <v>44471</v>
       </c>
-      <c r="J192" s="12">
+      <c r="J192" s="2">
         <v>88758</v>
       </c>
       <c r="K192" s="3">
@@ -15112,7 +15214,7 @@
       <c r="I193" s="1">
         <v>44022</v>
       </c>
-      <c r="J193" s="12">
+      <c r="J193" s="2">
         <v>88272</v>
       </c>
       <c r="K193" s="3">
@@ -15156,7 +15258,7 @@
       <c r="I194" s="1">
         <v>33890</v>
       </c>
-      <c r="J194" s="12">
+      <c r="J194" s="2">
         <v>88213</v>
       </c>
       <c r="K194" s="3">
@@ -15200,7 +15302,7 @@
       <c r="I195" s="1">
         <v>43635</v>
       </c>
-      <c r="J195" s="12">
+      <c r="J195" s="2">
         <v>88045</v>
       </c>
       <c r="K195" s="3">
@@ -15244,7 +15346,7 @@
       <c r="I196" s="1">
         <v>43086</v>
       </c>
-      <c r="J196" s="12">
+      <c r="J196" s="2">
         <v>87744</v>
       </c>
       <c r="K196" s="3">
@@ -15288,7 +15390,7 @@
       <c r="I197" s="1">
         <v>43461</v>
       </c>
-      <c r="J197" s="12">
+      <c r="J197" s="2">
         <v>87359</v>
       </c>
       <c r="K197" s="3">
@@ -15332,7 +15434,7 @@
       <c r="I198" s="1">
         <v>42329</v>
       </c>
-      <c r="J198" s="12">
+      <c r="J198" s="2">
         <v>87292</v>
       </c>
       <c r="K198" s="3">
@@ -15376,7 +15478,7 @@
       <c r="I199" s="1">
         <v>42777</v>
       </c>
-      <c r="J199" s="12">
+      <c r="J199" s="2">
         <v>87036</v>
       </c>
       <c r="K199" s="3">
@@ -15420,7 +15522,7 @@
       <c r="I200" s="1">
         <v>42877</v>
       </c>
-      <c r="J200" s="12">
+      <c r="J200" s="2">
         <v>86858</v>
       </c>
       <c r="K200" s="3">
@@ -15464,7 +15566,7 @@
       <c r="I201" s="1">
         <v>44206</v>
       </c>
-      <c r="J201" s="12">
+      <c r="J201" s="2">
         <v>86538</v>
       </c>
       <c r="K201" s="3">
@@ -15508,7 +15610,7 @@
       <c r="I202" s="1">
         <v>44370</v>
       </c>
-      <c r="J202" s="12">
+      <c r="J202" s="2">
         <v>86464</v>
       </c>
       <c r="K202" s="3">
@@ -15552,7 +15654,7 @@
       <c r="I203" s="1">
         <v>36041</v>
       </c>
-      <c r="J203" s="12">
+      <c r="J203" s="2">
         <v>86299</v>
       </c>
       <c r="K203" s="3">
@@ -15596,7 +15698,7 @@
       <c r="I204" s="1">
         <v>42443</v>
       </c>
-      <c r="J204" s="12">
+      <c r="J204" s="2">
         <v>85870</v>
       </c>
       <c r="K204" s="3">
@@ -15640,7 +15742,7 @@
       <c r="I205" s="1">
         <v>43456</v>
       </c>
-      <c r="J205" s="12">
+      <c r="J205" s="2">
         <v>83990</v>
       </c>
       <c r="K205" s="3">
@@ -15684,7 +15786,7 @@
       <c r="I206" s="1">
         <v>38792</v>
       </c>
-      <c r="J206" s="12">
+      <c r="J206" s="2">
         <v>83756</v>
       </c>
       <c r="K206" s="3">
@@ -15728,7 +15830,7 @@
       <c r="I207" s="1">
         <v>43219</v>
       </c>
-      <c r="J207" s="12">
+      <c r="J207" s="2">
         <v>83378</v>
       </c>
       <c r="K207" s="3">
@@ -15772,7 +15874,7 @@
       <c r="I208" s="1">
         <v>39991</v>
       </c>
-      <c r="J208" s="12">
+      <c r="J208" s="2">
         <v>82907</v>
       </c>
       <c r="K208" s="3">
@@ -15816,7 +15918,7 @@
       <c r="I209" s="1">
         <v>37582</v>
       </c>
-      <c r="J209" s="12">
+      <c r="J209" s="2">
         <v>80950</v>
       </c>
       <c r="K209" s="3">
@@ -15860,7 +15962,7 @@
       <c r="I210" s="1">
         <v>43354</v>
       </c>
-      <c r="J210" s="12">
+      <c r="J210" s="2">
         <v>80745</v>
       </c>
       <c r="K210" s="3">
@@ -15904,7 +16006,7 @@
       <c r="I211" s="1">
         <v>34915</v>
       </c>
-      <c r="J211" s="12">
+      <c r="J211" s="2">
         <v>80701</v>
       </c>
       <c r="K211" s="3">
@@ -15948,7 +16050,7 @@
       <c r="I212" s="1">
         <v>43898</v>
       </c>
-      <c r="J212" s="12">
+      <c r="J212" s="2">
         <v>80659</v>
       </c>
       <c r="K212" s="3">
@@ -15992,7 +16094,7 @@
       <c r="I213" s="1">
         <v>43114</v>
       </c>
-      <c r="J213" s="12">
+      <c r="J213" s="2">
         <v>80516</v>
       </c>
       <c r="K213" s="3">
@@ -16036,7 +16138,7 @@
       <c r="I214" s="1">
         <v>39002</v>
       </c>
-      <c r="J214" s="12">
+      <c r="J214" s="2">
         <v>79785</v>
       </c>
       <c r="K214" s="3">
@@ -16080,7 +16182,7 @@
       <c r="I215" s="1">
         <v>41404</v>
       </c>
-      <c r="J215" s="12">
+      <c r="J215" s="2">
         <v>79388</v>
       </c>
       <c r="K215" s="3">
@@ -16124,7 +16226,7 @@
       <c r="I216" s="1">
         <v>38632</v>
       </c>
-      <c r="J216" s="12">
+      <c r="J216" s="2">
         <v>79352</v>
       </c>
       <c r="K216" s="3">
@@ -16168,7 +16270,7 @@
       <c r="I217" s="1">
         <v>43363</v>
       </c>
-      <c r="J217" s="12">
+      <c r="J217" s="2">
         <v>78938</v>
       </c>
       <c r="K217" s="3">
@@ -16212,7 +16314,7 @@
       <c r="I218" s="1">
         <v>40360</v>
       </c>
-      <c r="J218" s="12">
+      <c r="J218" s="2">
         <v>78237</v>
       </c>
       <c r="K218" s="3">
@@ -16256,7 +16358,7 @@
       <c r="I219" s="1">
         <v>40170</v>
       </c>
-      <c r="J219" s="12">
+      <c r="J219" s="2">
         <v>78006</v>
       </c>
       <c r="K219" s="3">
@@ -16300,7 +16402,7 @@
       <c r="I220" s="1">
         <v>42322</v>
       </c>
-      <c r="J220" s="12">
+      <c r="J220" s="2">
         <v>77442</v>
       </c>
       <c r="K220" s="3">
@@ -16344,7 +16446,7 @@
       <c r="I221" s="1">
         <v>37399</v>
       </c>
-      <c r="J221" s="12">
+      <c r="J221" s="2">
         <v>76354</v>
       </c>
       <c r="K221" s="3">
@@ -16388,7 +16490,7 @@
       <c r="I222" s="1">
         <v>42291</v>
       </c>
-      <c r="J222" s="12">
+      <c r="J222" s="2">
         <v>76272</v>
       </c>
       <c r="K222" s="3">
@@ -16432,7 +16534,7 @@
       <c r="I223" s="1">
         <v>37313</v>
       </c>
-      <c r="J223" s="12">
+      <c r="J223" s="2">
         <v>75819</v>
       </c>
       <c r="K223" s="3">
@@ -16476,7 +16578,7 @@
       <c r="I224" s="1">
         <v>43778</v>
       </c>
-      <c r="J224" s="12">
+      <c r="J224" s="2">
         <v>75012</v>
       </c>
       <c r="K224" s="3">
@@ -16520,7 +16622,7 @@
       <c r="I225" s="1">
         <v>38540</v>
       </c>
-      <c r="J225" s="12">
+      <c r="J225" s="2">
         <v>74412</v>
       </c>
       <c r="K225" s="3">
@@ -16564,7 +16666,7 @@
       <c r="I226" s="1">
         <v>41525</v>
       </c>
-      <c r="J226" s="12">
+      <c r="J226" s="2">
         <v>73248</v>
       </c>
       <c r="K226" s="3">
@@ -16608,7 +16710,7 @@
       <c r="I227" s="1">
         <v>41026</v>
       </c>
-      <c r="J227" s="12">
+      <c r="J227" s="2">
         <v>72903</v>
       </c>
       <c r="K227" s="3">
@@ -16652,7 +16754,7 @@
       <c r="I228" s="1">
         <v>43937</v>
       </c>
-      <c r="J228" s="12">
+      <c r="J228" s="2">
         <v>71864</v>
       </c>
       <c r="K228" s="3">
@@ -16696,7 +16798,7 @@
       <c r="I229" s="1">
         <v>41199</v>
       </c>
-      <c r="J229" s="12">
+      <c r="J229" s="2">
         <v>71476</v>
       </c>
       <c r="K229" s="3">
@@ -16740,7 +16842,7 @@
       <c r="I230" s="1">
         <v>43850</v>
       </c>
-      <c r="J230" s="12">
+      <c r="J230" s="2">
         <v>71359</v>
       </c>
       <c r="K230" s="3">
@@ -16784,7 +16886,7 @@
       <c r="I231" s="1">
         <v>43299</v>
       </c>
-      <c r="J231" s="12">
+      <c r="J231" s="2">
         <v>71167</v>
       </c>
       <c r="K231" s="3">
@@ -16828,7 +16930,7 @@
       <c r="I232" s="1">
         <v>33875</v>
       </c>
-      <c r="J232" s="12">
+      <c r="J232" s="2">
         <v>70778</v>
       </c>
       <c r="K232" s="3">
@@ -16872,7 +16974,7 @@
       <c r="I233" s="1">
         <v>42995</v>
       </c>
-      <c r="J233" s="12">
+      <c r="J233" s="2">
         <v>70770</v>
       </c>
       <c r="K233" s="3">
@@ -16916,7 +17018,7 @@
       <c r="I234" s="1">
         <v>38388</v>
       </c>
-      <c r="J234" s="12">
+      <c r="J234" s="2">
         <v>70505</v>
       </c>
       <c r="K234" s="3">
@@ -16960,7 +17062,7 @@
       <c r="I235" s="1">
         <v>34999</v>
       </c>
-      <c r="J235" s="12">
+      <c r="J235" s="2">
         <v>70189</v>
       </c>
       <c r="K235" s="3">
@@ -17004,7 +17106,7 @@
       <c r="I236" s="1">
         <v>43613</v>
       </c>
-      <c r="J236" s="12">
+      <c r="J236" s="2">
         <v>70110</v>
       </c>
       <c r="K236" s="3">
@@ -17048,7 +17150,7 @@
       <c r="I237" s="1">
         <v>41898</v>
       </c>
-      <c r="J237" s="12">
+      <c r="J237" s="2">
         <v>69578</v>
       </c>
       <c r="K237" s="3">
@@ -17092,7 +17194,7 @@
       <c r="I238" s="1">
         <v>42245</v>
       </c>
-      <c r="J238" s="12">
+      <c r="J238" s="2">
         <v>68488</v>
       </c>
       <c r="K238" s="3">
@@ -17136,7 +17238,7 @@
       <c r="I239" s="1">
         <v>43227</v>
       </c>
-      <c r="J239" s="12">
+      <c r="J239" s="2">
         <v>67987</v>
       </c>
       <c r="K239" s="3">
@@ -17180,7 +17282,7 @@
       <c r="I240" s="1">
         <v>44385</v>
       </c>
-      <c r="J240" s="12">
+      <c r="J240" s="2">
         <v>67275</v>
       </c>
       <c r="K240" s="3">
@@ -17224,7 +17326,7 @@
       <c r="I241" s="1">
         <v>43527</v>
       </c>
-      <c r="J241" s="12">
+      <c r="J241" s="2">
         <v>67114</v>
       </c>
       <c r="K241" s="3">
@@ -17268,7 +17370,7 @@
       <c r="I242" s="1">
         <v>42878</v>
       </c>
-      <c r="J242" s="12">
+      <c r="J242" s="2">
         <v>65566</v>
       </c>
       <c r="K242" s="3">
@@ -17312,7 +17414,7 @@
       <c r="I243" s="1">
         <v>44232</v>
       </c>
-      <c r="J243" s="12">
+      <c r="J243" s="2">
         <v>65507</v>
       </c>
       <c r="K243" s="3">
@@ -17356,7 +17458,7 @@
       <c r="I244" s="1">
         <v>41032</v>
       </c>
-      <c r="J244" s="12">
+      <c r="J244" s="2">
         <v>65340</v>
       </c>
       <c r="K244" s="3">
@@ -17400,7 +17502,7 @@
       <c r="I245" s="1">
         <v>42317</v>
       </c>
-      <c r="J245" s="12">
+      <c r="J245" s="2">
         <v>65247</v>
       </c>
       <c r="K245" s="3">
@@ -17444,7 +17546,7 @@
       <c r="I246" s="1">
         <v>43371</v>
       </c>
-      <c r="J246" s="12">
+      <c r="J246" s="2">
         <v>64247</v>
       </c>
       <c r="K246" s="3">
@@ -17488,7 +17590,7 @@
       <c r="I247" s="1">
         <v>40820</v>
       </c>
-      <c r="J247" s="12">
+      <c r="J247" s="2">
         <v>63959</v>
       </c>
       <c r="K247" s="3">
@@ -17532,7 +17634,7 @@
       <c r="I248" s="1">
         <v>43447</v>
       </c>
-      <c r="J248" s="12">
+      <c r="J248" s="2">
         <v>63098</v>
       </c>
       <c r="K248" s="3">
@@ -17576,7 +17678,7 @@
       <c r="I249" s="1">
         <v>43536</v>
       </c>
-      <c r="J249" s="12">
+      <c r="J249" s="2">
         <v>62644</v>
       </c>
       <c r="K249" s="3">
@@ -17620,7 +17722,7 @@
       <c r="I250" s="1">
         <v>35153</v>
       </c>
-      <c r="J250" s="12">
+      <c r="J250" s="2">
         <v>62605</v>
       </c>
       <c r="K250" s="3">
@@ -17664,7 +17766,7 @@
       <c r="I251" s="1">
         <v>42031</v>
       </c>
-      <c r="J251" s="12">
+      <c r="J251" s="2">
         <v>62575</v>
       </c>
       <c r="K251" s="3">
@@ -17708,7 +17810,7 @@
       <c r="I252" s="1">
         <v>39944</v>
       </c>
-      <c r="J252" s="12">
+      <c r="J252" s="2">
         <v>62239</v>
       </c>
       <c r="K252" s="3">
@@ -17752,7 +17854,7 @@
       <c r="I253" s="1">
         <v>41386</v>
       </c>
-      <c r="J253" s="12">
+      <c r="J253" s="2">
         <v>61773</v>
       </c>
       <c r="K253" s="3">
@@ -17796,7 +17898,7 @@
       <c r="I254" s="1">
         <v>42776</v>
       </c>
-      <c r="J254" s="12">
+      <c r="J254" s="2">
         <v>60132</v>
       </c>
       <c r="K254" s="3">
@@ -17840,7 +17942,7 @@
       <c r="I255" s="1">
         <v>39912</v>
       </c>
-      <c r="J255" s="12">
+      <c r="J255" s="2">
         <v>60055</v>
       </c>
       <c r="K255" s="3">
@@ -17884,7 +17986,7 @@
       <c r="I256" s="1">
         <v>42117</v>
       </c>
-      <c r="J256" s="12">
+      <c r="J256" s="2">
         <v>60017</v>
       </c>
       <c r="K256" s="3">
@@ -17906,7 +18008,17 @@
         <f>SUM(J99:J256)</f>
         <v>17227563</v>
       </c>
-      <c r="K257" s="11"/>
+      <c r="K257" s="11" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L257" s="9">
+        <f>COUNT(J99:J256)</f>
+        <v>158</v>
+      </c>
+      <c r="M257" s="15">
+        <f>QUOTIENT(TBL_Employees[[#This Row],[Annual Salary]],TBL_Employees[[#This Row],[Country]])</f>
+        <v>109035</v>
+      </c>
       <c r="N257" s="10"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
@@ -17937,7 +18049,7 @@
       <c r="I258" s="1">
         <v>44545</v>
       </c>
-      <c r="J258" s="12">
+      <c r="J258" s="2">
         <v>255369</v>
       </c>
       <c r="K258" s="3">
@@ -17981,7 +18093,7 @@
       <c r="I259" s="1">
         <v>43638</v>
       </c>
-      <c r="J259" s="12">
+      <c r="J259" s="2">
         <v>250767</v>
       </c>
       <c r="K259" s="3">
@@ -18025,7 +18137,7 @@
       <c r="I260" s="1">
         <v>38564</v>
       </c>
-      <c r="J260" s="12">
+      <c r="J260" s="2">
         <v>249686</v>
       </c>
       <c r="K260" s="3">
@@ -18069,7 +18181,7 @@
       <c r="I261" s="1">
         <v>38004</v>
       </c>
-      <c r="J261" s="12">
+      <c r="J261" s="2">
         <v>247939</v>
       </c>
       <c r="K261" s="3">
@@ -18113,7 +18225,7 @@
       <c r="I262" s="1">
         <v>40734</v>
       </c>
-      <c r="J262" s="12">
+      <c r="J262" s="2">
         <v>247022</v>
       </c>
       <c r="K262" s="3">
@@ -18157,7 +18269,7 @@
       <c r="I263" s="1">
         <v>39830</v>
       </c>
-      <c r="J263" s="12">
+      <c r="J263" s="2">
         <v>238236</v>
       </c>
       <c r="K263" s="3">
@@ -18201,7 +18313,7 @@
       <c r="I264" s="1">
         <v>43253</v>
       </c>
-      <c r="J264" s="12">
+      <c r="J264" s="2">
         <v>231567</v>
       </c>
       <c r="K264" s="3">
@@ -18245,7 +18357,7 @@
       <c r="I265" s="1">
         <v>40883</v>
       </c>
-      <c r="J265" s="12">
+      <c r="J265" s="2">
         <v>225558</v>
       </c>
       <c r="K265" s="3">
@@ -18289,7 +18401,7 @@
       <c r="I266" s="1">
         <v>43413</v>
       </c>
-      <c r="J266" s="12">
+      <c r="J266" s="2">
         <v>223805</v>
       </c>
       <c r="K266" s="3">
@@ -18333,7 +18445,7 @@
       <c r="I267" s="1">
         <v>43330</v>
       </c>
-      <c r="J267" s="12">
+      <c r="J267" s="2">
         <v>223404</v>
       </c>
       <c r="K267" s="3">
@@ -18377,7 +18489,7 @@
       <c r="I268" s="1">
         <v>35576</v>
       </c>
-      <c r="J268" s="12">
+      <c r="J268" s="2">
         <v>216999</v>
       </c>
       <c r="K268" s="3">
@@ -18421,7 +18533,7 @@
       <c r="I269" s="1">
         <v>44515</v>
       </c>
-      <c r="J269" s="12">
+      <c r="J269" s="2">
         <v>210708</v>
       </c>
       <c r="K269" s="3">
@@ -18465,7 +18577,7 @@
       <c r="I270" s="1">
         <v>41650</v>
       </c>
-      <c r="J270" s="12">
+      <c r="J270" s="2">
         <v>202323</v>
       </c>
       <c r="K270" s="3">
@@ -18509,7 +18621,7 @@
       <c r="I271" s="1">
         <v>43439</v>
       </c>
-      <c r="J271" s="12">
+      <c r="J271" s="2">
         <v>199504</v>
       </c>
       <c r="K271" s="3">
@@ -18553,7 +18665,7 @@
       <c r="I272" s="1">
         <v>43102</v>
       </c>
-      <c r="J272" s="12">
+      <c r="J272" s="2">
         <v>190253</v>
       </c>
       <c r="K272" s="3">
@@ -18597,7 +18709,7 @@
       <c r="I273" s="1">
         <v>35187</v>
       </c>
-      <c r="J273" s="12">
+      <c r="J273" s="2">
         <v>189933</v>
       </c>
       <c r="K273" s="3">
@@ -18641,7 +18753,7 @@
       <c r="I274" s="1">
         <v>44303</v>
       </c>
-      <c r="J274" s="12">
+      <c r="J274" s="2">
         <v>186870</v>
       </c>
       <c r="K274" s="3">
@@ -18685,7 +18797,7 @@
       <c r="I275" s="1">
         <v>44032</v>
       </c>
-      <c r="J275" s="12">
+      <c r="J275" s="2">
         <v>184960</v>
       </c>
       <c r="K275" s="3">
@@ -18729,7 +18841,7 @@
       <c r="I276" s="1">
         <v>39330</v>
       </c>
-      <c r="J276" s="12">
+      <c r="J276" s="2">
         <v>183239</v>
       </c>
       <c r="K276" s="3">
@@ -18773,7 +18885,7 @@
       <c r="I277" s="1">
         <v>37304</v>
       </c>
-      <c r="J277" s="12">
+      <c r="J277" s="2">
         <v>179494</v>
       </c>
       <c r="K277" s="3">
@@ -18817,7 +18929,7 @@
       <c r="I278" s="1">
         <v>37319</v>
       </c>
-      <c r="J278" s="12">
+      <c r="J278" s="2">
         <v>175837</v>
       </c>
       <c r="K278" s="3">
@@ -18861,7 +18973,7 @@
       <c r="I279" s="1">
         <v>43600</v>
       </c>
-      <c r="J279" s="12">
+      <c r="J279" s="2">
         <v>174415</v>
       </c>
       <c r="K279" s="3">
@@ -18905,7 +19017,7 @@
       <c r="I280" s="1">
         <v>39728</v>
       </c>
-      <c r="J280" s="12">
+      <c r="J280" s="2">
         <v>170221</v>
       </c>
       <c r="K280" s="3">
@@ -18949,7 +19061,7 @@
       <c r="I281" s="1">
         <v>43844</v>
       </c>
-      <c r="J281" s="12">
+      <c r="J281" s="2">
         <v>168014</v>
       </c>
       <c r="K281" s="3">
@@ -18993,7 +19105,7 @@
       <c r="I282" s="1">
         <v>37636</v>
       </c>
-      <c r="J282" s="12">
+      <c r="J282" s="2">
         <v>166599</v>
       </c>
       <c r="K282" s="3">
@@ -19037,7 +19149,7 @@
       <c r="I283" s="1">
         <v>43493</v>
       </c>
-      <c r="J283" s="12">
+      <c r="J283" s="2">
         <v>165927</v>
       </c>
       <c r="K283" s="3">
@@ -19081,7 +19193,7 @@
       <c r="I284" s="1">
         <v>39016</v>
       </c>
-      <c r="J284" s="12">
+      <c r="J284" s="2">
         <v>163099</v>
       </c>
       <c r="K284" s="3">
@@ -19125,7 +19237,7 @@
       <c r="I285" s="1">
         <v>39367</v>
       </c>
-      <c r="J285" s="12">
+      <c r="J285" s="2">
         <v>162038</v>
       </c>
       <c r="K285" s="3">
@@ -19169,7 +19281,7 @@
       <c r="I286" s="1">
         <v>41454</v>
       </c>
-      <c r="J286" s="12">
+      <c r="J286" s="2">
         <v>159571</v>
       </c>
       <c r="K286" s="3">
@@ -19213,7 +19325,7 @@
       <c r="I287" s="1">
         <v>42891</v>
       </c>
-      <c r="J287" s="12">
+      <c r="J287" s="2">
         <v>158898</v>
       </c>
       <c r="K287" s="3">
@@ -19257,7 +19369,7 @@
       <c r="I288" s="1">
         <v>41329</v>
       </c>
-      <c r="J288" s="12">
+      <c r="J288" s="2">
         <v>157474</v>
       </c>
       <c r="K288" s="3">
@@ -19301,7 +19413,7 @@
       <c r="I289" s="1">
         <v>42957</v>
       </c>
-      <c r="J289" s="12">
+      <c r="J289" s="2">
         <v>156931</v>
       </c>
       <c r="K289" s="3">
@@ -19345,7 +19457,7 @@
       <c r="I290" s="1">
         <v>36826</v>
       </c>
-      <c r="J290" s="12">
+      <c r="J290" s="2">
         <v>155320</v>
       </c>
       <c r="K290" s="3">
@@ -19389,7 +19501,7 @@
       <c r="I291" s="1">
         <v>38060</v>
       </c>
-      <c r="J291" s="12">
+      <c r="J291" s="2">
         <v>155004</v>
       </c>
       <c r="K291" s="3">
@@ -19433,7 +19545,7 @@
       <c r="I292" s="1">
         <v>43977</v>
       </c>
-      <c r="J292" s="12">
+      <c r="J292" s="2">
         <v>153628</v>
       </c>
       <c r="K292" s="3">
@@ -19477,7 +19589,7 @@
       <c r="I293" s="1">
         <v>39005</v>
       </c>
-      <c r="J293" s="12">
+      <c r="J293" s="2">
         <v>153492</v>
       </c>
       <c r="K293" s="3">
@@ -19521,7 +19633,7 @@
       <c r="I294" s="1">
         <v>41264</v>
       </c>
-      <c r="J294" s="12">
+      <c r="J294" s="2">
         <v>153253</v>
       </c>
       <c r="K294" s="3">
@@ -19565,7 +19677,7 @@
       <c r="I295" s="1">
         <v>38835</v>
       </c>
-      <c r="J295" s="12">
+      <c r="J295" s="2">
         <v>150758</v>
       </c>
       <c r="K295" s="3">
@@ -19609,7 +19721,7 @@
       <c r="I296" s="1">
         <v>40620</v>
       </c>
-      <c r="J296" s="12">
+      <c r="J296" s="2">
         <v>150034</v>
       </c>
       <c r="K296" s="3">
@@ -19653,7 +19765,7 @@
       <c r="I297" s="1">
         <v>42379</v>
       </c>
-      <c r="J297" s="12">
+      <c r="J297" s="2">
         <v>149761</v>
       </c>
       <c r="K297" s="3">
@@ -19697,7 +19809,7 @@
       <c r="I298" s="1">
         <v>44357</v>
       </c>
-      <c r="J298" s="12">
+      <c r="J298" s="2">
         <v>146742</v>
       </c>
       <c r="K298" s="3">
@@ -19741,7 +19853,7 @@
       <c r="I299" s="1">
         <v>44303</v>
       </c>
-      <c r="J299" s="12">
+      <c r="J299" s="2">
         <v>146140</v>
       </c>
       <c r="K299" s="3">
@@ -19785,7 +19897,7 @@
       <c r="I300" s="1">
         <v>42266</v>
       </c>
-      <c r="J300" s="12">
+      <c r="J300" s="2">
         <v>145846</v>
       </c>
       <c r="K300" s="3">
@@ -19829,7 +19941,7 @@
       <c r="I301" s="1">
         <v>42772</v>
       </c>
-      <c r="J301" s="12">
+      <c r="J301" s="2">
         <v>144986</v>
       </c>
       <c r="K301" s="3">
@@ -19873,7 +19985,7 @@
       <c r="I302" s="1">
         <v>44554</v>
       </c>
-      <c r="J302" s="12">
+      <c r="J302" s="2">
         <v>144754</v>
       </c>
       <c r="K302" s="3">
@@ -19917,7 +20029,7 @@
       <c r="I303" s="1">
         <v>40274</v>
       </c>
-      <c r="J303" s="12">
+      <c r="J303" s="2">
         <v>142878</v>
       </c>
       <c r="K303" s="3">
@@ -19961,7 +20073,7 @@
       <c r="I304" s="1">
         <v>42270</v>
       </c>
-      <c r="J304" s="12">
+      <c r="J304" s="2">
         <v>141899</v>
       </c>
       <c r="K304" s="3">
@@ -20005,7 +20117,7 @@
       <c r="I305" s="1">
         <v>43211</v>
       </c>
-      <c r="J305" s="12">
+      <c r="J305" s="2">
         <v>140402</v>
       </c>
       <c r="K305" s="3">
@@ -20049,7 +20161,7 @@
       <c r="I306" s="1">
         <v>43400</v>
       </c>
-      <c r="J306" s="12">
+      <c r="J306" s="2">
         <v>139208</v>
       </c>
       <c r="K306" s="3">
@@ -20093,7 +20205,7 @@
       <c r="I307" s="1">
         <v>40378</v>
       </c>
-      <c r="J307" s="12">
+      <c r="J307" s="2">
         <v>134881</v>
       </c>
       <c r="K307" s="3">
@@ -20137,7 +20249,7 @@
       <c r="I308" s="1">
         <v>43763</v>
       </c>
-      <c r="J308" s="12">
+      <c r="J308" s="2">
         <v>131652</v>
       </c>
       <c r="K308" s="3">
@@ -20181,7 +20293,7 @@
       <c r="I309" s="1">
         <v>40657</v>
       </c>
-      <c r="J309" s="12">
+      <c r="J309" s="2">
         <v>131183</v>
       </c>
       <c r="K309" s="3">
@@ -20225,7 +20337,7 @@
       <c r="I310" s="1">
         <v>43685</v>
       </c>
-      <c r="J310" s="12">
+      <c r="J310" s="2">
         <v>130133</v>
       </c>
       <c r="K310" s="3">
@@ -20269,7 +20381,7 @@
       <c r="I311" s="1">
         <v>37295</v>
       </c>
-      <c r="J311" s="12">
+      <c r="J311" s="2">
         <v>128703</v>
       </c>
       <c r="K311" s="3">
@@ -20313,7 +20425,7 @@
       <c r="I312" s="1">
         <v>43936</v>
       </c>
-      <c r="J312" s="12">
+      <c r="J312" s="2">
         <v>126671</v>
       </c>
       <c r="K312" s="3">
@@ -20357,7 +20469,7 @@
       <c r="I313" s="1">
         <v>39305</v>
       </c>
-      <c r="J313" s="12">
+      <c r="J313" s="2">
         <v>126277</v>
       </c>
       <c r="K313" s="3">
@@ -20401,7 +20513,7 @@
       <c r="I314" s="1">
         <v>37144</v>
       </c>
-      <c r="J314" s="12">
+      <c r="J314" s="2">
         <v>125730</v>
       </c>
       <c r="K314" s="3">
@@ -20445,7 +20557,7 @@
       <c r="I315" s="1">
         <v>34746</v>
       </c>
-      <c r="J315" s="12">
+      <c r="J315" s="2">
         <v>125375</v>
       </c>
       <c r="K315" s="3">
@@ -20489,7 +20601,7 @@
       <c r="I316" s="1">
         <v>42605</v>
       </c>
-      <c r="J316" s="12">
+      <c r="J316" s="2">
         <v>124928</v>
       </c>
       <c r="K316" s="3">
@@ -20533,7 +20645,7 @@
       <c r="I317" s="1">
         <v>40091</v>
       </c>
-      <c r="J317" s="12">
+      <c r="J317" s="2">
         <v>122890</v>
       </c>
       <c r="K317" s="3">
@@ -20577,7 +20689,7 @@
       <c r="I318" s="1">
         <v>43756</v>
       </c>
-      <c r="J318" s="12">
+      <c r="J318" s="2">
         <v>122829</v>
       </c>
       <c r="K318" s="3">
@@ -20621,7 +20733,7 @@
       <c r="I319" s="1">
         <v>35996</v>
       </c>
-      <c r="J319" s="12">
+      <c r="J319" s="2">
         <v>122753</v>
       </c>
       <c r="K319" s="3">
@@ -20665,7 +20777,7 @@
       <c r="I320" s="1">
         <v>38096</v>
       </c>
-      <c r="J320" s="12">
+      <c r="J320" s="2">
         <v>122487</v>
       </c>
       <c r="K320" s="3">
@@ -20709,7 +20821,7 @@
       <c r="I321" s="1">
         <v>36523</v>
       </c>
-      <c r="J321" s="12">
+      <c r="J321" s="2">
         <v>116527</v>
       </c>
       <c r="K321" s="3">
@@ -20753,7 +20865,7 @@
       <c r="I322" s="1">
         <v>40297</v>
       </c>
-      <c r="J322" s="12">
+      <c r="J322" s="2">
         <v>111038</v>
       </c>
       <c r="K322" s="3">
@@ -20797,7 +20909,7 @@
       <c r="I323" s="1">
         <v>40293</v>
       </c>
-      <c r="J323" s="12">
+      <c r="J323" s="2">
         <v>110302</v>
       </c>
       <c r="K323" s="3">
@@ -20841,7 +20953,7 @@
       <c r="I324" s="1">
         <v>35913</v>
       </c>
-      <c r="J324" s="12">
+      <c r="J324" s="2">
         <v>108268</v>
       </c>
       <c r="K324" s="3">
@@ -20885,7 +20997,7 @@
       <c r="I325" s="1">
         <v>41439</v>
       </c>
-      <c r="J325" s="12">
+      <c r="J325" s="2">
         <v>108221</v>
       </c>
       <c r="K325" s="3">
@@ -20929,7 +21041,7 @@
       <c r="I326" s="1">
         <v>40344</v>
       </c>
-      <c r="J326" s="12">
+      <c r="J326" s="2">
         <v>106578</v>
       </c>
       <c r="K326" s="3">
@@ -20973,7 +21085,7 @@
       <c r="I327" s="1">
         <v>43239</v>
       </c>
-      <c r="J327" s="12">
+      <c r="J327" s="2">
         <v>106437</v>
       </c>
       <c r="K327" s="3">
@@ -21017,7 +21129,7 @@
       <c r="I328" s="1">
         <v>43935</v>
       </c>
-      <c r="J328" s="12">
+      <c r="J328" s="2">
         <v>103524</v>
       </c>
       <c r="K328" s="3">
@@ -21061,7 +21173,7 @@
       <c r="I329" s="1">
         <v>40192</v>
       </c>
-      <c r="J329" s="12">
+      <c r="J329" s="2">
         <v>103504</v>
       </c>
       <c r="K329" s="3">
@@ -21105,7 +21217,7 @@
       <c r="I330" s="1">
         <v>40092</v>
       </c>
-      <c r="J330" s="12">
+      <c r="J330" s="2">
         <v>103096</v>
       </c>
       <c r="K330" s="3">
@@ -21149,7 +21261,7 @@
       <c r="I331" s="1">
         <v>36272</v>
       </c>
-      <c r="J331" s="12">
+      <c r="J331" s="2">
         <v>102847</v>
       </c>
       <c r="K331" s="3">
@@ -21193,7 +21305,7 @@
       <c r="I332" s="1">
         <v>40936</v>
       </c>
-      <c r="J332" s="12">
+      <c r="J332" s="2">
         <v>95960</v>
       </c>
       <c r="K332" s="3">
@@ -21237,7 +21349,7 @@
       <c r="I333" s="1">
         <v>41886</v>
       </c>
-      <c r="J333" s="12">
+      <c r="J333" s="2">
         <v>95499</v>
       </c>
       <c r="K333" s="3">
@@ -21281,7 +21393,7 @@
       <c r="I334" s="1">
         <v>35023</v>
       </c>
-      <c r="J334" s="12">
+      <c r="J334" s="2">
         <v>95409</v>
       </c>
       <c r="K334" s="3">
@@ -21325,7 +21437,7 @@
       <c r="I335" s="1">
         <v>44078</v>
       </c>
-      <c r="J335" s="12">
+      <c r="J335" s="2">
         <v>95045</v>
       </c>
       <c r="K335" s="3">
@@ -21369,7 +21481,7 @@
       <c r="I336" s="1">
         <v>42285</v>
       </c>
-      <c r="J336" s="12">
+      <c r="J336" s="2">
         <v>94876</v>
       </c>
       <c r="K336" s="3">
@@ -21413,7 +21525,7 @@
       <c r="I337" s="1">
         <v>36525</v>
       </c>
-      <c r="J337" s="12">
+      <c r="J337" s="2">
         <v>89523</v>
       </c>
       <c r="K337" s="3">
@@ -21457,7 +21569,7 @@
       <c r="I338" s="1">
         <v>41294</v>
       </c>
-      <c r="J338" s="12">
+      <c r="J338" s="2">
         <v>86061</v>
       </c>
       <c r="K338" s="3">
@@ -21501,7 +21613,7 @@
       <c r="I339" s="1">
         <v>43623</v>
       </c>
-      <c r="J339" s="12">
+      <c r="J339" s="2">
         <v>80700</v>
       </c>
       <c r="K339" s="3">
@@ -21545,7 +21657,7 @@
       <c r="I340" s="1">
         <v>37456</v>
       </c>
-      <c r="J340" s="12">
+      <c r="J340" s="2">
         <v>77396</v>
       </c>
       <c r="K340" s="3">
@@ -21589,7 +21701,7 @@
       <c r="I341" s="1">
         <v>43264</v>
       </c>
-      <c r="J341" s="12">
+      <c r="J341" s="2">
         <v>77203</v>
       </c>
       <c r="K341" s="3">
@@ -21633,7 +21745,7 @@
       <c r="I342" s="1">
         <v>43542</v>
       </c>
-      <c r="J342" s="12">
+      <c r="J342" s="2">
         <v>74779</v>
       </c>
       <c r="K342" s="3">
@@ -21677,7 +21789,7 @@
       <c r="I343" s="1">
         <v>41714</v>
       </c>
-      <c r="J343" s="12">
+      <c r="J343" s="2">
         <v>74552</v>
       </c>
       <c r="K343" s="3">
@@ -21721,7 +21833,7 @@
       <c r="I344" s="1">
         <v>42992</v>
       </c>
-      <c r="J344" s="12">
+      <c r="J344" s="2">
         <v>74449</v>
       </c>
       <c r="K344" s="3">
@@ -21765,7 +21877,7 @@
       <c r="I345" s="1">
         <v>44308</v>
       </c>
-      <c r="J345" s="12">
+      <c r="J345" s="2">
         <v>74215</v>
       </c>
       <c r="K345" s="3">
@@ -21809,7 +21921,7 @@
       <c r="I346" s="1">
         <v>39137</v>
       </c>
-      <c r="J346" s="12">
+      <c r="J346" s="2">
         <v>71699</v>
       </c>
       <c r="K346" s="3">
@@ -21853,7 +21965,7 @@
       <c r="I347" s="1">
         <v>38813</v>
       </c>
-      <c r="J347" s="12">
+      <c r="J347" s="2">
         <v>71531</v>
       </c>
       <c r="K347" s="3">
@@ -21897,7 +22009,7 @@
       <c r="I348" s="1">
         <v>42711</v>
       </c>
-      <c r="J348" s="12">
+      <c r="J348" s="2">
         <v>71454</v>
       </c>
       <c r="K348" s="3">
@@ -21941,7 +22053,7 @@
       <c r="I349" s="1">
         <v>39418</v>
       </c>
-      <c r="J349" s="12">
+      <c r="J349" s="2">
         <v>64494</v>
       </c>
       <c r="K349" s="3">
@@ -21985,7 +22097,7 @@
       <c r="I350" s="1">
         <v>42129</v>
       </c>
-      <c r="J350" s="12">
+      <c r="J350" s="2">
         <v>64364</v>
       </c>
       <c r="K350" s="3">
@@ -22029,7 +22141,7 @@
       <c r="I351" s="1">
         <v>39708</v>
       </c>
-      <c r="J351" s="12">
+      <c r="J351" s="2">
         <v>62861</v>
       </c>
       <c r="K351" s="3">
@@ -22073,7 +22185,7 @@
       <c r="I352" s="1">
         <v>43819</v>
       </c>
-      <c r="J352" s="12">
+      <c r="J352" s="2">
         <v>61026</v>
       </c>
       <c r="K352" s="3">
@@ -22117,7 +22229,7 @@
       <c r="I353" s="1">
         <v>43578</v>
       </c>
-      <c r="J353" s="12">
+      <c r="J353" s="2">
         <v>59817</v>
       </c>
       <c r="K353" s="3">
@@ -22161,7 +22273,7 @@
       <c r="I354" s="1">
         <v>39310</v>
       </c>
-      <c r="J354" s="12">
+      <c r="J354" s="2">
         <v>58671</v>
       </c>
       <c r="K354" s="3">
@@ -22205,7 +22317,7 @@
       <c r="I355" s="1">
         <v>37296</v>
       </c>
-      <c r="J355" s="12">
+      <c r="J355" s="2">
         <v>58605</v>
       </c>
       <c r="K355" s="3">
@@ -22249,7 +22361,7 @@
       <c r="I356" s="1">
         <v>41127</v>
       </c>
-      <c r="J356" s="12">
+      <c r="J356" s="2">
         <v>58586</v>
       </c>
       <c r="K356" s="3">
@@ -22293,7 +22405,7 @@
       <c r="I357" s="1">
         <v>42182</v>
       </c>
-      <c r="J357" s="12">
+      <c r="J357" s="2">
         <v>57008</v>
       </c>
       <c r="K357" s="3">
@@ -22337,7 +22449,7 @@
       <c r="I358" s="1">
         <v>44024</v>
       </c>
-      <c r="J358" s="12">
+      <c r="J358" s="2">
         <v>56565</v>
       </c>
       <c r="K358" s="3">
@@ -22381,7 +22493,7 @@
       <c r="I359" s="1">
         <v>40657</v>
       </c>
-      <c r="J359" s="12">
+      <c r="J359" s="2">
         <v>55894</v>
       </c>
       <c r="K359" s="3">
@@ -22425,7 +22537,7 @@
       <c r="I360" s="1">
         <v>43515</v>
       </c>
-      <c r="J360" s="12">
+      <c r="J360" s="2">
         <v>55859</v>
       </c>
       <c r="K360" s="3">
@@ -22469,7 +22581,7 @@
       <c r="I361" s="1">
         <v>37796</v>
       </c>
-      <c r="J361" s="12">
+      <c r="J361" s="2">
         <v>55760</v>
       </c>
       <c r="K361" s="3">
@@ -22513,7 +22625,7 @@
       <c r="I362" s="1">
         <v>38123</v>
       </c>
-      <c r="J362" s="12">
+      <c r="J362" s="2">
         <v>55499</v>
       </c>
       <c r="K362" s="3">
@@ -22557,7 +22669,7 @@
       <c r="I363" s="1">
         <v>43542</v>
       </c>
-      <c r="J363" s="12">
+      <c r="J363" s="2">
         <v>54714</v>
       </c>
       <c r="K363" s="3">
@@ -22601,7 +22713,7 @@
       <c r="I364" s="1">
         <v>42753</v>
       </c>
-      <c r="J364" s="12">
+      <c r="J364" s="2">
         <v>53799</v>
       </c>
       <c r="K364" s="3">
@@ -22645,7 +22757,7 @@
       <c r="I365" s="1">
         <v>42068</v>
       </c>
-      <c r="J365" s="12">
+      <c r="J365" s="2">
         <v>52697</v>
       </c>
       <c r="K365" s="3">
@@ -22689,7 +22801,7 @@
       <c r="I366" s="1">
         <v>39091</v>
       </c>
-      <c r="J366" s="12">
+      <c r="J366" s="2">
         <v>50685</v>
       </c>
       <c r="K366" s="3">
@@ -22733,7 +22845,7 @@
       <c r="I367" s="1">
         <v>37343</v>
       </c>
-      <c r="J367" s="12">
+      <c r="J367" s="2">
         <v>50475</v>
       </c>
       <c r="K367" s="3">
@@ -22777,7 +22889,7 @@
       <c r="I368" s="1">
         <v>37519</v>
       </c>
-      <c r="J368" s="12">
+      <c r="J368" s="2">
         <v>49738</v>
       </c>
       <c r="K368" s="3">
@@ -22821,7 +22933,7 @@
       <c r="I369" s="1">
         <v>43226</v>
       </c>
-      <c r="J369" s="12">
+      <c r="J369" s="2">
         <v>49011</v>
       </c>
       <c r="K369" s="3">
@@ -22865,7 +22977,7 @@
       <c r="I370" s="1">
         <v>44435</v>
       </c>
-      <c r="J370" s="12">
+      <c r="J370" s="2">
         <v>48906</v>
       </c>
       <c r="K370" s="3">
@@ -22909,7 +23021,7 @@
       <c r="I371" s="1">
         <v>44302</v>
       </c>
-      <c r="J371" s="12">
+      <c r="J371" s="2">
         <v>48266</v>
       </c>
       <c r="K371" s="3">
@@ -22953,7 +23065,7 @@
       <c r="I372" s="1">
         <v>40329</v>
       </c>
-      <c r="J372" s="12">
+      <c r="J372" s="2">
         <v>47387</v>
       </c>
       <c r="K372" s="3">
@@ -22997,7 +23109,7 @@
       <c r="I373" s="1">
         <v>40984</v>
       </c>
-      <c r="J373" s="12">
+      <c r="J373" s="2">
         <v>46081</v>
       </c>
       <c r="K373" s="3">
@@ -23041,7 +23153,7 @@
       <c r="I374" s="1">
         <v>42317</v>
       </c>
-      <c r="J374" s="12">
+      <c r="J374" s="2">
         <v>45369</v>
       </c>
       <c r="K374" s="3">
@@ -23085,7 +23197,7 @@
       <c r="I375" s="1">
         <v>39994</v>
       </c>
-      <c r="J375" s="12">
+      <c r="J375" s="2">
         <v>43363</v>
       </c>
       <c r="K375" s="3">
@@ -23129,7 +23241,7 @@
       <c r="I376" s="1">
         <v>38847</v>
       </c>
-      <c r="J376" s="12">
+      <c r="J376" s="2">
         <v>41561</v>
       </c>
       <c r="K376" s="3">
@@ -23173,7 +23285,7 @@
       <c r="I377" s="1">
         <v>43967</v>
       </c>
-      <c r="J377" s="12">
+      <c r="J377" s="2">
         <v>41336</v>
       </c>
       <c r="K377" s="3">
@@ -23195,7 +23307,17 @@
         <f>SUM(J258:J377)</f>
         <v>14736347</v>
       </c>
-      <c r="K378" s="11"/>
+      <c r="K378" s="11" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L378" s="9">
+        <f>COUNT(J258:J377)</f>
+        <v>120</v>
+      </c>
+      <c r="M378" s="15">
+        <f>QUOTIENT(TBL_Employees[[#This Row],[Annual Salary]],TBL_Employees[[#This Row],[Country]])</f>
+        <v>122802</v>
+      </c>
       <c r="N378" s="10"/>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.3">
@@ -28704,7 +28826,17 @@
         <f>SUM(J379:J503)</f>
         <v>14757305</v>
       </c>
-      <c r="K504" s="11"/>
+      <c r="K504" s="11" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L504" s="9">
+        <f>COUNT(J379:J503)</f>
+        <v>125</v>
+      </c>
+      <c r="M504" s="15">
+        <f>QUOTIENT(TBL_Employees[[#This Row],[Annual Salary]],TBL_Employees[[#This Row],[Country]])</f>
+        <v>118058</v>
+      </c>
       <c r="N504" s="10"/>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.3">
@@ -39313,11 +39445,21 @@
     </row>
     <row r="746" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I746" s="10"/>
-      <c r="J746" s="13">
+      <c r="J746" s="12">
         <f>SUM(J505:J745)</f>
         <v>23567499</v>
       </c>
-      <c r="K746" s="11"/>
+      <c r="K746" s="11" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L746" s="9">
+        <f>COUNT(J505:J745)</f>
+        <v>241</v>
+      </c>
+      <c r="M746" s="15">
+        <f>QUOTIENT(TBL_Employees[[#This Row],[Annual Salary]],TBL_Employees[[#This Row],[Country]])</f>
+        <v>97790</v>
+      </c>
       <c r="N746" s="10"/>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.3">
@@ -44606,7 +44748,17 @@
         <f>SUM(J747:J866)</f>
         <v>15559564</v>
       </c>
-      <c r="K867" s="11"/>
+      <c r="K867" s="11" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L867" s="9">
+        <f>COUNT(J747:J866)</f>
+        <v>120</v>
+      </c>
+      <c r="M867" s="14">
+        <f>QUOTIENT(TBL_Employees[[#This Row],[Annual Salary]],TBL_Employees[[#This Row],[Country]])</f>
+        <v>129663</v>
+      </c>
       <c r="N867" s="10"/>
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.3">
@@ -50769,15 +50921,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I1008" s="10"/>
-      <c r="J1008" s="8">
+    <row r="1008" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I1008" s="17"/>
+      <c r="J1008" s="20">
         <f>SUM(J868:J1007)</f>
         <v>15546980</v>
       </c>
-      <c r="K1008" s="11"/>
-      <c r="N1008" s="10"/>
-      <c r="O1008"/>
+      <c r="K1008" s="21" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L1008" s="16">
+        <f>COUNT(J868:J1007)</f>
+        <v>140</v>
+      </c>
+      <c r="M1008" s="18">
+        <f>QUOTIENT(TBL_Employees[[#Totals],[Annual Salary]],TBL_Employees[[#Totals],[Country]])</f>
+        <v>111049</v>
+      </c>
+      <c r="N1008" s="17"/>
+      <c r="O1008" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
